--- a/pm/charts.xlsx
+++ b/pm/charts.xlsx
@@ -387,7 +387,7 @@
   <dimension ref="B2:C15"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/pm/charts.xlsx
+++ b/pm/charts.xlsx
@@ -9,12 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="لیست نمودارها" sheetId="1" r:id="rId1"/>
+    <sheet name="1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="3" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="29">
   <si>
     <t>درخواست</t>
   </si>
@@ -67,12 +71,57 @@
   <si>
     <t>تعداد سهام در بازه زمانی</t>
   </si>
+  <si>
+    <t>سال</t>
+  </si>
+  <si>
+    <t>ماه</t>
+  </si>
+  <si>
+    <t>تعداد درخواست</t>
+  </si>
+  <si>
+    <t>نوع درخواست</t>
+  </si>
+  <si>
+    <t>خرید</t>
+  </si>
+  <si>
+    <t>فروش</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of تعداد درخواست</t>
+  </si>
+  <si>
+    <t>فیلتر بر اساس</t>
+  </si>
+  <si>
+    <t>1-ایجاد سرویس تامین داده های مورد نیاز</t>
+  </si>
+  <si>
+    <t>2-طراحی اولیه نمودار</t>
+  </si>
+  <si>
+    <t>3-افزودن خط ترند</t>
+  </si>
+  <si>
+    <t>4-بررسی امکان انتخاب بازه زمانی</t>
+  </si>
+  <si>
+    <t>5-افزودن امکان فیلتر کردن به نمودار</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,16 +130,52 @@
       <charset val="178"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="B Titr"/>
+      <charset val="178"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -98,12 +183,71 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -119,6 +263,1532 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Sahel" panose="020B0603030804020204" pitchFamily="34" charset="-78"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Sahel" panose="020B0603030804020204" pitchFamily="34" charset="-78"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fa-IR" sz="1100"/>
+              <a:t>تعداد درخواست های</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fa-IR" sz="1100" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fa-IR" sz="1100"/>
+              <a:t>خرید و فروش در ماه</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Sahel" panose="020B0603030804020204" pitchFamily="34" charset="-78"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Sahel" panose="020B0603030804020204" pitchFamily="34" charset="-78"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1396</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="movingAvg"/>
+            <c:period val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>'1'!$A$4:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1'!$B$4:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-06C7-440F-A0DD-4B12CBACED5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1'!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1397</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="movingAvg"/>
+            <c:period val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>'1'!$B$17:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-06C7-440F-A0DD-4B12CBACED5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2095251888"/>
+        <c:axId val="2095253136"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2095251888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="1">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Sahel" panose="020B0603030804020204" pitchFamily="34" charset="-78"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Sahel" panose="020B0603030804020204" pitchFamily="34" charset="-78"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2095253136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2095253136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Sahel" panose="020B0603030804020204" pitchFamily="34" charset="-78"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Sahel" panose="020B0603030804020204" pitchFamily="34" charset="-78"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2095251888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Sahel" panose="020B0603030804020204" pitchFamily="34" charset="-78"/>
+          <a:cs typeface="Sahel" panose="020B0603030804020204" pitchFamily="34" charset="-78"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Ahmadi.Mohammad" refreshedDate="43606.566846759262" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="48">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="E2:H50" sheet="1"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="سال" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1396" maxValue="1397" count="2">
+        <n v="1396"/>
+        <n v="1397"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="ماه" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="12" count="12">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
+        <n v="6"/>
+        <n v="7"/>
+        <n v="8"/>
+        <n v="9"/>
+        <n v="10"/>
+        <n v="11"/>
+        <n v="12"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="نوع درخواست" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="تعداد درخواست" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="25"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="48">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="خرید"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="خرید"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="خرید"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="خرید"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="خرید"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <s v="خرید"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="خرید"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+    <s v="خرید"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+    <s v="خرید"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <s v="خرید"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <s v="خرید"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="11"/>
+    <s v="خرید"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="فروش"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="فروش"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="فروش"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="فروش"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="فروش"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <s v="فروش"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="فروش"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+    <s v="فروش"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+    <s v="فروش"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+    <s v="فروش"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <s v="فروش"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="11"/>
+    <s v="فروش"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="خرید"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="خرید"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="خرید"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <s v="خرید"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <s v="خرید"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="خرید"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <s v="خرید"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <s v="خرید"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <s v="خرید"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <s v="خرید"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <s v="خرید"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="11"/>
+    <s v="خرید"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="فروش"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="فروش"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="فروش"/>
+    <n v="13"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <s v="فروش"/>
+    <n v="19"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <s v="فروش"/>
+    <n v="21"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="فروش"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <s v="فروش"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <s v="فروش"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <s v="فروش"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <s v="فروش"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <s v="فروش"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="11"/>
+    <s v="فروش"/>
+    <n v="9"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A2:B29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="27">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of تعداد درخواست" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -384,83 +2054,1092 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C15"/>
+  <dimension ref="B2:D15"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="75.5703125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="7"/>
+      <c r="C3" s="6">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="7"/>
+      <c r="C4" s="6">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="7"/>
+      <c r="C5" s="6">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="7"/>
+      <c r="C6" s="6">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="7"/>
+      <c r="C7" s="6">
+        <v>6</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6">
+        <v>7</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="7"/>
+      <c r="C11" s="6">
+        <v>8</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="7"/>
+      <c r="C12" s="6">
+        <v>9</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="6">
+        <v>10</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="7"/>
+      <c r="C15" s="6">
+        <v>11</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B14:B15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:T50"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31:T31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="14.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="10" max="11" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>1396</v>
+      </c>
+      <c r="B3" s="13">
+        <v>187</v>
+      </c>
+      <c r="E3" s="10">
+        <v>1396</v>
+      </c>
+      <c r="F3" s="10">
+        <v>1</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13">
+        <v>12</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1396</v>
+      </c>
+      <c r="F4" s="8">
+        <v>2</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <v>2</v>
+      </c>
+      <c r="B5" s="13">
+        <v>30</v>
+      </c>
+      <c r="E5" s="10">
+        <v>1396</v>
+      </c>
+      <c r="F5" s="10">
+        <v>3</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="10">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="J5" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+      <c r="B6" s="13">
+        <v>11</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1396</v>
+      </c>
+      <c r="F6" s="8">
+        <v>4</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="8">
+        <v>20</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
+        <v>4</v>
+      </c>
+      <c r="B7" s="13">
+        <v>29</v>
+      </c>
+      <c r="E7" s="10">
+        <v>1396</v>
+      </c>
+      <c r="F7" s="10">
+        <v>5</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="10">
+        <v>8</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>5</v>
+      </c>
+      <c r="B8" s="13">
+        <v>11</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1396</v>
+      </c>
+      <c r="F8" s="8">
+        <v>6</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>6</v>
+      </c>
+      <c r="B9" s="13">
+        <v>25</v>
+      </c>
+      <c r="E9" s="10">
+        <v>1396</v>
+      </c>
+      <c r="F9" s="10">
+        <v>7</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>7</v>
+      </c>
+      <c r="B10" s="13">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>1396</v>
+      </c>
+      <c r="F10" s="8">
+        <v>8</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>8</v>
+      </c>
+      <c r="B11" s="13">
+        <v>16</v>
+      </c>
+      <c r="E11" s="10">
+        <v>1396</v>
+      </c>
+      <c r="F11" s="10">
+        <v>9</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>9</v>
+      </c>
+      <c r="B12" s="13">
+        <v>25</v>
+      </c>
+      <c r="E12" s="8">
+        <v>1396</v>
+      </c>
+      <c r="F12" s="8">
+        <v>10</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <v>10</v>
+      </c>
+      <c r="B13" s="13">
+        <v>5</v>
+      </c>
+      <c r="E13" s="10">
+        <v>1396</v>
+      </c>
+      <c r="F13" s="10">
+        <v>11</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <v>11</v>
+      </c>
+      <c r="B14" s="13">
+        <v>13</v>
+      </c>
+      <c r="E14" s="8">
+        <v>1396</v>
+      </c>
+      <c r="F14" s="8">
+        <v>12</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
+        <v>12</v>
+      </c>
+      <c r="B15" s="13">
+        <v>9</v>
+      </c>
+      <c r="E15" s="10">
+        <v>1396</v>
+      </c>
+      <c r="F15" s="10">
+        <v>1</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>1397</v>
+      </c>
+      <c r="B16" s="13">
+        <v>266</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1396</v>
+      </c>
+      <c r="F16" s="8">
+        <v>2</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
+        <v>1</v>
+      </c>
+      <c r="B17" s="13">
+        <v>16</v>
+      </c>
+      <c r="E17" s="10">
+        <v>1396</v>
+      </c>
+      <c r="F17" s="10">
+        <v>3</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
+        <v>2</v>
+      </c>
+      <c r="B18" s="13">
+        <v>17</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1396</v>
+      </c>
+      <c r="F18" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+      <c r="G18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
+        <v>3</v>
+      </c>
+      <c r="B19" s="13">
+        <v>27</v>
+      </c>
+      <c r="E19" s="10">
+        <v>1396</v>
+      </c>
+      <c r="F19" s="10">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+      <c r="G19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
+        <v>4</v>
+      </c>
+      <c r="B20" s="13">
+        <v>39</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1396</v>
+      </c>
+      <c r="F20" s="8">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+      <c r="G20" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
+        <v>5</v>
+      </c>
+      <c r="B21" s="13">
+        <v>29</v>
+      </c>
+      <c r="E21" s="10">
+        <v>1396</v>
+      </c>
+      <c r="F21" s="10">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="G21" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
+        <v>6</v>
+      </c>
+      <c r="B22" s="13">
+        <v>14</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1396</v>
+      </c>
+      <c r="F22" s="8">
+        <v>8</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="14">
+        <v>7</v>
+      </c>
+      <c r="B23" s="13">
+        <v>27</v>
+      </c>
+      <c r="E23" s="10">
+        <v>1396</v>
+      </c>
+      <c r="F23" s="10">
+        <v>9</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="14">
+        <v>8</v>
+      </c>
+      <c r="B24" s="13">
+        <v>13</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1396</v>
+      </c>
+      <c r="F24" s="8">
+        <v>10</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="14">
+        <v>9</v>
+      </c>
+      <c r="B25" s="13">
+        <v>23</v>
+      </c>
+      <c r="E25" s="10">
+        <v>1396</v>
+      </c>
+      <c r="F25" s="10">
+        <v>11</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="10">
+        <v>12</v>
+      </c>
+      <c r="L25" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
+        <v>10</v>
+      </c>
+      <c r="B26" s="13">
+        <v>28</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1396</v>
+      </c>
+      <c r="F26" s="8">
+        <v>12</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="8">
+        <v>8</v>
+      </c>
+      <c r="L26" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="14">
+        <v>11</v>
+      </c>
+      <c r="B27" s="13">
+        <v>23</v>
+      </c>
+      <c r="E27" s="10">
+        <v>1397</v>
+      </c>
+      <c r="F27" s="10">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
+      <c r="G27" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="10">
+        <v>10</v>
+      </c>
+      <c r="L27" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
+        <v>12</v>
+      </c>
+      <c r="B28" s="13">
+        <v>10</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1397</v>
+      </c>
+      <c r="F28" s="8">
+        <v>2</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="8">
+        <v>11</v>
+      </c>
+      <c r="L28" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="13">
+        <v>453</v>
+      </c>
+      <c r="E29" s="10">
+        <v>1397</v>
+      </c>
+      <c r="F29" s="10">
+        <v>3</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="10">
+        <v>14</v>
+      </c>
+      <c r="L29" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E30" s="8">
+        <v>1397</v>
+      </c>
+      <c r="F30" s="8">
+        <v>4</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E31" s="10">
+        <v>1397</v>
+      </c>
+      <c r="F31" s="10">
+        <v>5</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E32" s="8">
+        <v>1397</v>
+      </c>
+      <c r="F32" s="8">
+        <v>6</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E33" s="10">
+        <v>1397</v>
+      </c>
+      <c r="F33" s="10">
+        <v>7</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="10">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+    <row r="34" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E34" s="8">
+        <v>1397</v>
+      </c>
+      <c r="F34" s="8">
+        <v>8</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E35" s="10">
+        <v>1397</v>
+      </c>
+      <c r="F35" s="10">
+        <v>9</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E36" s="8">
+        <v>1397</v>
+      </c>
+      <c r="F36" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="G36" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" s="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E37" s="10">
+        <v>1397</v>
+      </c>
+      <c r="F37" s="10">
         <v>11</v>
       </c>
-      <c r="C14" t="s">
+      <c r="G37" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E38" s="8">
+        <v>1397</v>
+      </c>
+      <c r="F38" s="8">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
+      <c r="G38" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E39" s="10">
+        <v>1397</v>
+      </c>
+      <c r="F39" s="10">
+        <v>1</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E40" s="8">
+        <v>1397</v>
+      </c>
+      <c r="F40" s="8">
+        <v>2</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E41" s="10">
+        <v>1397</v>
+      </c>
+      <c r="F41" s="10">
+        <v>3</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" s="10">
         <v>13</v>
       </c>
     </row>
+    <row r="42" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E42" s="8">
+        <v>1397</v>
+      </c>
+      <c r="F42" s="8">
+        <v>4</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" s="8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E43" s="10">
+        <v>1397</v>
+      </c>
+      <c r="F43" s="10">
+        <v>5</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" s="10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E44" s="8">
+        <v>1397</v>
+      </c>
+      <c r="F44" s="8">
+        <v>6</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E45" s="10">
+        <v>1397</v>
+      </c>
+      <c r="F45" s="10">
+        <v>7</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E46" s="8">
+        <v>1397</v>
+      </c>
+      <c r="F46" s="8">
+        <v>8</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E47" s="10">
+        <v>1397</v>
+      </c>
+      <c r="F47" s="10">
+        <v>9</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H47" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E48" s="8">
+        <v>1397</v>
+      </c>
+      <c r="F48" s="8">
+        <v>10</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H48" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E49" s="10">
+        <v>1397</v>
+      </c>
+      <c r="F49" s="10">
+        <v>11</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E50" s="8">
+        <v>1397</v>
+      </c>
+      <c r="F50" s="8">
+        <v>12</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H50" s="8">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="L31:T31"/>
+    <mergeCell ref="L28:T28"/>
+    <mergeCell ref="L25:T25"/>
+    <mergeCell ref="L26:T26"/>
+    <mergeCell ref="L27:T27"/>
+    <mergeCell ref="L29:T29"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>